--- a/Projeto/Documentos/Outros/Planilha de Testes.xlsx
+++ b/Projeto/Documentos/Outros/Planilha de Testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yggdr\Downloads\Fatec\Fatec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\EasyPHP-DevServer-14.1VC11\data\localweb\myfiles\Equipe_Lider-Projeto_Integrador\Projeto\Documentos\Outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40330B00-F679-4A8E-9E32-67B68A413B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FEDCF-06E9-45BD-9353-14D7D46D892B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>TS01</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>E-mail recebido com sucesso.</t>
-  </si>
-  <si>
-    <t>Em testes</t>
   </si>
   <si>
     <t>Req. 1 – Criar arquivos .htaccess em cada 
@@ -533,6 +530,41 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -542,56 +574,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -927,9 +924,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -950,11 +947,11 @@
       <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -975,11 +972,11 @@
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
@@ -1002,11 +999,11 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7"/>
@@ -1029,90 +1026,90 @@
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1133,9 +1130,9 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1183,15 +1180,15 @@
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1216,7 +1213,7 @@
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1255,8 +1252,8 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
+      <c r="C13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -1264,7 +1261,7 @@
       <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>44153</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1424,7 +1421,7 @@
         <v>44155</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1448,21 +1445,21 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="F18" s="25">
         <v>44153</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1484,18 +1481,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,18 +1628,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4B2ADC-D92E-43E1-B0D2-516DD1449CD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D451FA6-B6F3-46DE-99C0-3D7E8F6398EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D451FA6-B6F3-46DE-99C0-3D7E8F6398EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4B2ADC-D92E-43E1-B0D2-516DD1449CD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projeto/Documentos/Outros/Planilha de Testes.xlsx
+++ b/Projeto/Documentos/Outros/Planilha de Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\EasyPHP-DevServer-14.1VC11\data\localweb\myfiles\Equipe_Lider-Projeto_Integrador\Projeto\Documentos\Outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FEDCF-06E9-45BD-9353-14D7D46D892B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A43BA-306C-4A20-9A83-CE08DECD9CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="15">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
@@ -1301,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="4">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>11</v>
@@ -1340,7 +1340,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="4">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>11</v>
@@ -1379,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>11</v>
@@ -1418,7 +1418,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="4">
-        <v>44155</v>
+        <v>44157</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
@@ -1457,7 +1457,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="25">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>11</v>
@@ -1481,18 +1481,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1628,18 +1628,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D451FA6-B6F3-46DE-99C0-3D7E8F6398EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4B2ADC-D92E-43E1-B0D2-516DD1449CD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4B2ADC-D92E-43E1-B0D2-516DD1449CD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D451FA6-B6F3-46DE-99C0-3D7E8F6398EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
